--- a/설계/테이블 구성.xlsx
+++ b/설계/테이블 구성.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nayoonv\game-uruk\설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{810C70F7-F935-4478-A413-F91DE88EAE4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4AE185-7524-40F5-B06B-51246B9CF0C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42180" yWindow="2670" windowWidth="28800" windowHeight="15500" xr2:uid="{59F6D182-FAEC-4BF3-A690-25A750217E18}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{59F6D182-FAEC-4BF3-A690-25A750217E18}"/>
   </bookViews>
   <sheets>
     <sheet name="game-data" sheetId="3" r:id="rId1"/>
@@ -453,7 +453,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="344">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1810,6 +1810,22 @@
   </si>
   <si>
     <t>user_sinker_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_current_place</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>access_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출항 시각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저가 출항한 위치와 시각</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2346,10 +2362,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBF64E5F-28AE-4868-B332-37029AACFFCF}">
-  <dimension ref="A1:E105"/>
+  <dimension ref="A1:E111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="C97" sqref="C97"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3750,6 +3766,76 @@
       </c>
       <c r="D105" t="s">
         <v>140</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A107" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B107" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A108" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B108" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C108" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D108" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="E108" s="10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A109">
+        <v>1</v>
+      </c>
+      <c r="B109" t="s">
+        <v>187</v>
+      </c>
+      <c r="C109" t="s">
+        <v>198</v>
+      </c>
+      <c r="D109" t="s">
+        <v>140</v>
+      </c>
+      <c r="E109" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A110">
+        <v>2</v>
+      </c>
+      <c r="B110" t="s">
+        <v>32</v>
+      </c>
+      <c r="C110" t="s">
+        <v>86</v>
+      </c>
+      <c r="D110" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A111">
+        <v>3</v>
+      </c>
+      <c r="B111" t="s">
+        <v>341</v>
+      </c>
+      <c r="C111" t="s">
+        <v>342</v>
+      </c>
+      <c r="D111" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/설계/테이블 구성.xlsx
+++ b/설계/테이블 구성.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nayoonv\game-uruk\설계\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nayoonv\game-server\설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4AE185-7524-40F5-B06B-51246B9CF0C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3128727A-C104-4C86-B6E7-A5014170CAD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{59F6D182-FAEC-4BF3-A690-25A750217E18}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{59F6D182-FAEC-4BF3-A690-25A750217E18}"/>
   </bookViews>
   <sheets>
     <sheet name="game-data" sheetId="3" r:id="rId1"/>
@@ -453,7 +453,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="356">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1826,6 +1826,53 @@
   </si>
   <si>
     <t>유저가 출항한 위치와 시각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입항 후 정산되었는지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>before_cal</t>
+  </si>
+  <si>
+    <t>book_prize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도감 완성에 따른 보상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>book_prize_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도감 완성에 따른 보상 id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fish_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도감에 채워진 물고기 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재화 방식 id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>advantage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경매 시 얻게 되는 이익(%)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1981,7 +2028,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2027,9 +2074,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2045,7 +2089,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2362,10 +2406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBF64E5F-28AE-4868-B332-37029AACFFCF}">
-  <dimension ref="A1:E111"/>
+  <dimension ref="A1:E114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A116" sqref="A116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2591,6 +2635,13 @@
         <v>305</v>
       </c>
     </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+    </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="11" t="s">
         <v>197</v>
@@ -3327,36 +3378,36 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A72" s="7">
-        <v>1</v>
-      </c>
-      <c r="B72" s="9" t="s">
+      <c r="A72" s="2">
+        <v>1</v>
+      </c>
+      <c r="B72" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="C72" s="9" t="s">
+      <c r="C72" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="D72" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="E72" s="9" t="s">
+      <c r="D72" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="E72" s="8" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A73" s="7">
-        <v>2</v>
-      </c>
-      <c r="B73" s="9" t="s">
+      <c r="A73" s="2">
+        <v>2</v>
+      </c>
+      <c r="B73" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="C73" s="9" t="s">
+      <c r="C73" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="D73" s="9" t="s">
+      <c r="D73" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="E73" s="7"/>
+      <c r="E73" s="2"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
@@ -3367,83 +3418,83 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A76" s="20" t="s">
+      <c r="A76" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B76" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C76" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D76" s="20" t="s">
+      <c r="B76" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D76" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="E76" s="20" t="s">
+      <c r="E76" s="19" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A77" s="7">
-        <v>1</v>
-      </c>
-      <c r="B77" s="7" t="s">
+      <c r="A77" s="2">
+        <v>1</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="C77" s="7" t="s">
+      <c r="C77" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="D77" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="E77" s="21" t="s">
+      <c r="D77" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E77" s="3" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A78" s="7">
-        <v>2</v>
-      </c>
-      <c r="B78" s="7" t="s">
+      <c r="A78" s="2">
+        <v>2</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C78" s="7" t="s">
+      <c r="C78" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D78" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="E78" s="7"/>
+      <c r="D78" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="E78" s="2"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A79" s="7">
+      <c r="A79" s="2">
         <v>3</v>
       </c>
-      <c r="B79" s="7" t="s">
+      <c r="B79" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C79" s="7" t="s">
+      <c r="C79" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D79" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="E79" s="7"/>
+      <c r="D79" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="E79" s="2"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A80" s="7">
+      <c r="A80" s="2">
         <v>4</v>
       </c>
-      <c r="B80" s="7" t="s">
+      <c r="B80" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="C80" s="7" t="s">
+      <c r="C80" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="D80" s="7" t="s">
+      <c r="D80" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E80" s="7" t="s">
+      <c r="E80" s="2" t="s">
         <v>286</v>
       </c>
     </row>
@@ -3463,80 +3514,83 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A83" s="20" t="s">
+      <c r="A83" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B83" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C83" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D83" s="20" t="s">
+      <c r="B83" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C83" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D83" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="E83" s="20" t="s">
+      <c r="E83" s="19" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A84" s="9">
-        <v>1</v>
-      </c>
-      <c r="B84" s="9" t="s">
+      <c r="A84" s="8">
+        <v>1</v>
+      </c>
+      <c r="B84" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="D84" t="s">
-        <v>140</v>
-      </c>
-      <c r="E84" t="s">
+      <c r="D84" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A85" s="9">
-        <v>2</v>
-      </c>
-      <c r="B85" s="9" t="s">
+      <c r="A85" s="8">
+        <v>2</v>
+      </c>
+      <c r="B85" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="D85" t="s">
-        <v>140</v>
-      </c>
+      <c r="D85" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E85" s="2"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A86">
+      <c r="A86" s="2">
         <v>3</v>
       </c>
-      <c r="B86" s="9" t="s">
+      <c r="B86" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="D86" t="s">
-        <v>140</v>
-      </c>
+      <c r="D86" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E86" s="2"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A87" s="9">
+      <c r="A87" s="8">
         <v>4</v>
       </c>
-      <c r="B87" s="9" t="s">
+      <c r="B87" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D87" t="s">
-        <v>140</v>
-      </c>
+      <c r="D87" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E87" s="2"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
@@ -3564,279 +3618,336 @@
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A91">
-        <v>1</v>
-      </c>
-      <c r="B91" t="s">
+      <c r="A91" s="2">
+        <v>1</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="D91" t="s">
-        <v>140</v>
-      </c>
-      <c r="E91" t="s">
+      <c r="D91" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A92">
-        <v>2</v>
-      </c>
-      <c r="B92" t="s">
+      <c r="A92" s="2">
+        <v>2</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D92" t="s">
-        <v>140</v>
-      </c>
+      <c r="D92" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E92" s="2"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A93">
+      <c r="A93" s="2">
         <v>3</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D93" t="s">
-        <v>140</v>
-      </c>
+      <c r="D93" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E93" s="2"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A94">
+      <c r="A94" s="2">
         <v>4</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="D94" t="s">
-        <v>140</v>
-      </c>
-      <c r="E94" t="s">
+      <c r="D94" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A95">
+      <c r="A95" s="2">
         <v>5</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D95" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E95" s="2" t="s">
         <v>321</v>
       </c>
     </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A96" s="2">
+        <v>6</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E96" s="2"/>
+    </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A97" s="1" t="s">
+      <c r="A97" s="2">
+        <v>7</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E97" s="2"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A98" s="8">
+        <v>8</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E98" s="8" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A100" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B100" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A98" s="10" t="s">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A101" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B98" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C98" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D98" s="10" t="s">
+      <c r="B101" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C101" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D101" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="E98" s="10" t="s">
+      <c r="E101" s="10" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A99">
-        <v>1</v>
-      </c>
-      <c r="B99" t="s">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A102" s="2">
+        <v>1</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C102" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D99" t="s">
-        <v>140</v>
-      </c>
-      <c r="E99" t="s">
+      <c r="D102" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A100">
-        <v>2</v>
-      </c>
-      <c r="B100" t="s">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A103" s="2">
+        <v>2</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C103" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="D100" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A101">
+      <c r="D103" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E103" s="2"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A104" s="2">
         <v>3</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B104" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C104" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="D101" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A102">
+      <c r="D104" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E104" s="2"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A105" s="2">
         <v>4</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B105" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C105" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="D102" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A103">
+      <c r="D105" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E105" s="2"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A106" s="2">
         <v>5</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B106" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C106" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="D103" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A104">
+      <c r="D106" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E106" s="2"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A107" s="2">
         <v>6</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B107" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C107" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="D104" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A105">
+      <c r="D107" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E107" s="2"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A108" s="2">
         <v>7</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B108" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C108" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="D105" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A107" s="1" t="s">
+      <c r="D108" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E108" s="2"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A110" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B110" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A108" s="10" t="s">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A111" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B108" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C108" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D108" s="10" t="s">
+      <c r="B111" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D111" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="E108" s="10" t="s">
+      <c r="E111" s="10" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A109">
-        <v>1</v>
-      </c>
-      <c r="B109" t="s">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A112" s="2">
+        <v>1</v>
+      </c>
+      <c r="B112" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C112" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D109" t="s">
-        <v>140</v>
-      </c>
-      <c r="E109" t="s">
+      <c r="D112" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A110">
-        <v>2</v>
-      </c>
-      <c r="B110" t="s">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A113" s="2">
+        <v>2</v>
+      </c>
+      <c r="B113" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C113" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D110" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A111">
+      <c r="D113" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E113" s="2"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A114" s="2">
         <v>3</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B114" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C114" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D114" s="2" t="s">
         <v>201</v>
       </c>
+      <c r="E114" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3847,10 +3958,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3242E66-B909-433E-B55E-F4A11B1BEF69}">
-  <dimension ref="A1:J74"/>
+  <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4533,253 +4644,351 @@
       </c>
       <c r="E52" s="2"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A54" s="1" t="s">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A53" s="8">
+        <v>4</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="E53" s="2"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A55" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B55" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A55" s="10" t="s">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A56" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B55" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D55" s="10" t="s">
+      <c r="B56" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="E55" s="10" t="s">
+      <c r="E56" s="10" t="s">
         <v>139</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A56" s="2">
-        <v>1</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A57" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A58" s="2">
+        <v>2</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C58" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D58" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E57" s="2"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A59" s="1" t="s">
+      <c r="E58" s="2"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A60" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B60" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A60" s="10" t="s">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A61" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B60" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D60" s="10" t="s">
+      <c r="B61" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="E60" s="10" t="s">
+      <c r="E61" s="10" t="s">
         <v>139</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A61" s="2">
-        <v>1</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A62" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A63" s="2">
+        <v>2</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C63" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D63" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E62" s="2"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A64" s="1" t="s">
+      <c r="E63" s="2"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A65" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B65" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A65" s="10" t="s">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A66" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B65" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D65" s="10" t="s">
+      <c r="B66" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D66" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="E65" s="10" t="s">
+      <c r="E66" s="10" t="s">
         <v>139</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A66" s="2">
-        <v>1</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A67" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E67" s="2"/>
+      <c r="E67" s="2" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A68" s="2">
+        <v>2</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E68" s="2"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A69" s="2">
         <v>3</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B69" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C69" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D68" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E68" s="2"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A70" s="1" t="s">
+      <c r="D69" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E69" s="2"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A71" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B71" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A71" s="10" t="s">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A72" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B71" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D71" s="10" t="s">
+      <c r="B72" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D72" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="E71" s="10" t="s">
+      <c r="E72" s="10" t="s">
         <v>139</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A72" s="2">
-        <v>1</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A73" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A74" s="2">
+        <v>2</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C74" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="D74" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E73" s="2"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A74" s="7"/>
-      <c r="B74" s="7"/>
-      <c r="C74" s="7"/>
+      <c r="E74" s="2"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A75" s="7"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A76" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A77" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="E77" s="10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A78" s="2">
+        <v>1</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A79" s="2">
+        <v>2</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E79" s="2"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A80" s="2">
+        <v>3</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A81" s="2">
+        <v>4</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5255,34 +5464,34 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A36" s="16">
+      <c r="A36" s="15">
         <v>3</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="C36" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="D36" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="E36" s="16"/>
+      <c r="D36" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="E36" s="15"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A37" s="17">
+      <c r="A37" s="16">
         <v>4</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="C37" s="18" t="s">
+      <c r="C37" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="D37" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="E37" s="19"/>
+      <c r="D37" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="E37" s="18"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" s="7">

--- a/설계/테이블 구성.xlsx
+++ b/설계/테이블 구성.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nayoonv\game-server\설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3128727A-C104-4C86-B6E7-A5014170CAD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDDB65F9-1929-44D9-B9D1-E77C48AF0A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{59F6D182-FAEC-4BF3-A690-25A750217E18}"/>
+    <workbookView xWindow="28665" yWindow="-3285" windowWidth="38670" windowHeight="21270" activeTab="2" xr2:uid="{59F6D182-FAEC-4BF3-A690-25A750217E18}"/>
   </bookViews>
   <sheets>
     <sheet name="game-data" sheetId="3" r:id="rId1"/>
@@ -453,7 +453,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="369">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -591,10 +591,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>item_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -935,10 +931,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>item_map</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>레벨업을 위해 필요한 경험치</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -967,18 +959,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>낚시대나 릴과 같은 아이템에 대한 id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 id(PK)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>store</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -995,10 +975,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>아이템 id pk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>피로도</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1514,18 +1490,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>user_item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>유저별 아이템</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>user_item_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>유저 아이템 id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1597,18 +1565,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0 -&gt; 업그레이드 가능 아이템, 1 -&gt; 업그레이드 불가능 아이템</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 id (채비일 경우 user_item_id, 물고기일 경우 user_fish_id)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fish -&gt; 0, item -&gt; 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>freshness</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1633,26 +1589,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>채비 타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>채비 타입 id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>채비 타입 명칭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>preparation_type_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>채비 타입 id (preparation_id와 preparation_type_id는 복합키이면서 unique키)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>재화 id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1677,10 +1617,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>선물함 - item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>received</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1721,10 +1657,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>업그레이드 가능 아이템, 0 -&gt; 업그레이드 가능 아이템, 1 -&gt; 업그레이드 불가능 아이템</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>출항에 필요한 피로도(장소의 거리에 따라 출항비용이 달라진다. 멀수록 비쌈)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1741,10 +1673,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>user_upgrade_item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>유저별 업그레이드 가능 아이템</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1757,10 +1685,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>user_current_item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>현재 유저가 장착하고 있는 채비</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1873,6 +1797,134 @@
   </si>
   <si>
     <t>경매 시 얻게 되는 이익(%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선물 종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_type_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_type_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선물 종류 id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선물 종류 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선물 타입 id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선물 id (type이 asset이면 asset_id, equip이면 equip_id)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_gift_box_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선물함 id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선물함 - 채비와 재화를 선물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 id (채비일 경우 user_equip_id, 물고기일 경우 user_fish_id)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fish -&gt; 0, equip -&gt; 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_equip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_equip_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equip_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채비 id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업그레이드 가능 여부, 0 -&gt; 업그레이드 가능 채비, 1 -&gt; 업그레이드 불가능 채비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_upgrade_equip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_current_equip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equip_map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채비 id(PK)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>준비물 타입 id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>준비물 타입 명칭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>준비물 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낚시대나 릴과 같은 준비물에 대한 id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채비 id pk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>준비물 타입 id (preparation_id와 preparation_type_id는 복합키이면서 unique키)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1957,7 +2009,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -2001,15 +2053,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -2028,7 +2071,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2074,19 +2117,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -2406,13 +2437,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBF64E5F-28AE-4868-B332-37029AACFFCF}">
-  <dimension ref="A1:E114"/>
+  <dimension ref="A1:E117"/>
   <sheetViews>
     <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A116" sqref="A116"/>
+      <selection activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
     <col min="2" max="2" width="29.75" customWidth="1"/>
@@ -2421,15 +2452,15 @@
     <col min="5" max="5" width="53" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="B1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -2440,83 +2471,83 @@
         <v>2</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B8" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>0</v>
       </c>
@@ -2527,130 +2558,130 @@
         <v>2</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>1</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>2</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>3</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>4</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>5</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>6</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B17" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>0</v>
       </c>
@@ -2661,1293 +2692,1332 @@
         <v>2</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A19" s="2">
-        <v>1</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <v>1</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>2</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>35</v>
+        <v>181</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>129</v>
+        <v>192</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+        <v>134</v>
+      </c>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>3</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>4</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>5</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
+        <v>6</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>7</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="12"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="B27" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>1</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>2</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="D30" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>3</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D31" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>4</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="D32" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="B34" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>1</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>2</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>3</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="B40" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>1</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>2</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>3</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="B46" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>1</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>2</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>3</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>4</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>5</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="B54" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
+        <v>1</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
+        <v>2</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
+        <v>3</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
+        <v>4</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E59" s="2"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
+        <v>5</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
+        <v>6</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E61" s="2"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="2">
+        <v>7</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E62" s="2"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="2">
+        <v>8</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E63" s="2"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="2"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="B65" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="2">
+        <v>1</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="2">
+        <v>2</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E68" s="2"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="2">
+        <v>3</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E69" s="2"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="2">
+        <v>4</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E70" s="2"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="2">
+        <v>5</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E71" s="2"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="7"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E74" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="2">
+        <v>1</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C75" s="8" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A22" s="12">
+      <c r="D75" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="2">
+        <v>2</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="E76" s="2"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B78" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D79" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="E79" s="15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="2">
+        <v>1</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="2">
+        <v>2</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D81" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="E81" s="2"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="2">
+        <v>3</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D82" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="E82" s="2"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="2">
         <v>4</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B83" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E83" s="2"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="7"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C86" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D86" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="E86" s="15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="8">
+        <v>1</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="8">
+        <v>2</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E88" s="2"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="2">
+        <v>3</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="C89" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="D89" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E89" s="2"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="8">
+        <v>4</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E90" s="2"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B92" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D93" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E93" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="2">
+        <v>1</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="2">
+        <v>2</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E95" s="2"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" s="2">
+        <v>3</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E96" s="2"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" s="2">
+        <v>4</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" s="2">
+        <v>5</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" s="2">
+        <v>6</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E99" s="2"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" s="2">
+        <v>7</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E100" s="2"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" s="8">
+        <v>8</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="E101" s="8" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B103" t="s">
         <v>308</v>
       </c>
-      <c r="D22" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A23" s="12"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A24" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="B24" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A25" s="10" t="s">
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A26" s="2">
-        <v>1</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A27" s="2">
-        <v>2</v>
-      </c>
-      <c r="B27" s="2" t="s">
+      <c r="B104" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C104" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D104" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E104" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" s="2">
+        <v>1</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" s="2">
+        <v>2</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E106" s="2"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" s="2">
+        <v>3</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E107" s="2"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" s="2">
+        <v>4</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C108" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A28" s="2">
+      <c r="D108" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E108" s="2"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" s="2">
+        <v>5</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E109" s="2"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" s="2">
+        <v>6</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E110" s="2"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" s="2">
+        <v>7</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E111" s="2"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B113" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B114" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C114" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D114" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E114" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" s="2">
+        <v>1</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" s="2">
+        <v>2</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E116" s="2"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" s="2">
         <v>3</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A29" s="2">
-        <v>4</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A31" s="11" t="s">
-        <v>315</v>
-      </c>
-      <c r="B31" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A32" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A33" s="2">
-        <v>1</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A34" s="2">
-        <v>2</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A35" s="2">
-        <v>3</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E35" s="2"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A37" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="B37" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A38" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A39" s="2">
-        <v>1</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A40" s="2">
-        <v>2</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A41" s="2">
-        <v>3</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A43" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="B43" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A44" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A45" s="2">
-        <v>1</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A46" s="2">
-        <v>2</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A47" s="2">
-        <v>3</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E47" s="2"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A48" s="2">
-        <v>4</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E48" s="2"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A49" s="2">
-        <v>5</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E49" s="2"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A51" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="B51" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A52" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="E52" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A53" s="2">
-        <v>1</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A54" s="2">
-        <v>2</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A55" s="2">
-        <v>3</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A56" s="2">
-        <v>4</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E56" s="2"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A57" s="2">
-        <v>5</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A58" s="2">
-        <v>6</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E58" s="2"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A59" s="2">
-        <v>7</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E59" s="2"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A60" s="2">
-        <v>8</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E60" s="2"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A61" s="2"/>
-      <c r="B61" s="7"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A62" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="B62" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A63" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B63" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D63" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="E63" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A64" s="2">
-        <v>1</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A65" s="2">
-        <v>2</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E65" s="2"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A66" s="2">
-        <v>3</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E66" s="2"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A67" s="2">
-        <v>4</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E67" s="2"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A68" s="2">
-        <v>5</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E68" s="2"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A69" s="7"/>
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A70" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="B70" s="9" t="s">
-        <v>320</v>
-      </c>
-      <c r="C70" s="7"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A71" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B71" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D71" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="E71" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A72" s="2">
-        <v>1</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="D72" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="E72" s="8" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A73" s="2">
-        <v>2</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="D73" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="E73" s="2"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A75" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="B75" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A76" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B76" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C76" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D76" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="E76" s="19" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A77" s="2">
-        <v>1</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A78" s="2">
-        <v>2</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D78" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="E78" s="2"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A79" s="2">
-        <v>3</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D79" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="E79" s="2"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A80" s="2">
-        <v>4</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A81" s="7"/>
-      <c r="B81" s="7"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="7"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A82" s="1" t="s">
+      <c r="B117" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="B82" s="9" t="s">
+      <c r="C117" s="2" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A83" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B83" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C83" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D83" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="E83" s="19" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A84" s="8">
-        <v>1</v>
-      </c>
-      <c r="B84" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A85" s="8">
-        <v>2</v>
-      </c>
-      <c r="B85" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E85" s="2"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A86" s="2">
-        <v>3</v>
-      </c>
-      <c r="B86" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E86" s="2"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A87" s="8">
-        <v>4</v>
-      </c>
-      <c r="B87" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E87" s="2"/>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A89" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="B89" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A90" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B90" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C90" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D90" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="E90" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A91" s="2">
-        <v>1</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A92" s="2">
-        <v>2</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E92" s="2"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A93" s="2">
-        <v>3</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E93" s="2"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A94" s="2">
-        <v>4</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A95" s="2">
-        <v>5</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A96" s="2">
-        <v>6</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E96" s="2"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A97" s="2">
-        <v>7</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E97" s="2"/>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A98" s="8">
-        <v>8</v>
-      </c>
-      <c r="B98" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="C98" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="D98" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="E98" s="8" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A100" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="B100" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A101" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B101" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C101" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D101" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="E101" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A102" s="2">
-        <v>1</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A103" s="2">
-        <v>2</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E103" s="2"/>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A104" s="2">
-        <v>3</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E104" s="2"/>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A105" s="2">
-        <v>4</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E105" s="2"/>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A106" s="2">
-        <v>5</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E106" s="2"/>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A107" s="2">
-        <v>6</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E107" s="2"/>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A108" s="2">
-        <v>7</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E108" s="2"/>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A110" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B110" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A111" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B111" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C111" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D111" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="E111" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A112" s="2">
-        <v>1</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A113" s="2">
-        <v>2</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E113" s="2"/>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A114" s="2">
-        <v>3</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E114" s="2"/>
+      <c r="D117" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E117" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3958,27 +4028,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3242E66-B909-433E-B55E-F4A11B1BEF69}">
-  <dimension ref="A1:J81"/>
+  <dimension ref="A1:J86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.83203125" customWidth="1"/>
+    <col min="1" max="1" width="21.875" customWidth="1"/>
     <col min="2" max="2" width="22.25" customWidth="1"/>
-    <col min="3" max="3" width="70.58203125" customWidth="1"/>
-    <col min="4" max="4" width="14.08203125" customWidth="1"/>
-    <col min="5" max="5" width="18.08203125" customWidth="1"/>
+    <col min="3" max="3" width="70.625" customWidth="1"/>
+    <col min="4" max="4" width="14.125" customWidth="1"/>
+    <col min="5" max="5" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -3989,13 +4059,13 @@
         <v>2</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -4003,20 +4073,20 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="6"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -4024,14 +4094,14 @@
         <v>32</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -4042,11 +4112,11 @@
         <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -4057,11 +4127,11 @@
         <v>7</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -4072,11 +4142,11 @@
         <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -4084,14 +4154,14 @@
         <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>7</v>
       </c>
@@ -4102,11 +4172,11 @@
         <v>31</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>8</v>
       </c>
@@ -4117,11 +4187,11 @@
         <v>12</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>9</v>
       </c>
@@ -4132,34 +4202,34 @@
         <v>14</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>0</v>
       </c>
@@ -4170,13 +4240,13 @@
         <v>2</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>1</v>
       </c>
@@ -4184,16 +4254,16 @@
         <v>23</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>2</v>
       </c>
@@ -4204,11 +4274,11 @@
         <v>21</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>3</v>
       </c>
@@ -4219,16 +4289,16 @@
         <v>22</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>0</v>
       </c>
@@ -4239,13 +4309,13 @@
         <v>2</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>1</v>
       </c>
@@ -4253,16 +4323,16 @@
         <v>32</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>2</v>
       </c>
@@ -4273,11 +4343,11 @@
         <v>27</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>3</v>
       </c>
@@ -4288,11 +4358,11 @@
         <v>28</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>4</v>
       </c>
@@ -4303,11 +4373,11 @@
         <v>29</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>5</v>
       </c>
@@ -4315,14 +4385,14 @@
         <v>19</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>6</v>
       </c>
@@ -4330,52 +4400,52 @@
         <v>20</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>7</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>8</v>
       </c>
       <c r="B29" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>106</v>
-      </c>
       <c r="D29" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E29" s="2"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B31" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
         <v>0</v>
       </c>
@@ -4386,53 +4456,53 @@
         <v>2</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>1</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="D33" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>2</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="D34" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E34" s="2"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B36" t="s">
         <v>90</v>
       </c>
-      <c r="B36" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
         <v>0</v>
       </c>
@@ -4443,85 +4513,85 @@
         <v>2</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E37" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>1</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A38" s="2">
-        <v>1</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="D38" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>2</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A39" s="2">
-        <v>2</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="D39" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>3</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="D40" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E40" s="2"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>4</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E41" s="2"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>120</v>
+        <v>360</v>
       </c>
       <c r="B43" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
         <v>0</v>
       </c>
@@ -4532,13 +4602,13 @@
         <v>2</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>1</v>
       </c>
@@ -4546,41 +4616,41 @@
         <v>32</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>2</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>35</v>
+        <v>355</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>130</v>
+        <v>361</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="B48" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
         <v>0</v>
       </c>
@@ -4591,83 +4661,83 @@
         <v>2</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>1</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>2</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E51" s="2"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>3</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E52" s="2"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="8">
         <v>4</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>354</v>
+        <v>335</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E53" s="2"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B55" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="10" t="s">
         <v>0</v>
       </c>
@@ -4678,53 +4748,53 @@
         <v>2</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>1</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>2</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E58" s="2"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B60" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="10" t="s">
         <v>0</v>
       </c>
@@ -4735,53 +4805,53 @@
         <v>2</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>1</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>2</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E63" s="2"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B65" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="10" t="s">
         <v>0</v>
       </c>
@@ -4792,68 +4862,68 @@
         <v>2</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>1</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="D67" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="2">
+        <v>2</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D67" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A68" s="2">
-        <v>2</v>
-      </c>
-      <c r="B68" s="2" t="s">
+      <c r="C68" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="D68" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E68" s="2"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>3</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="D69" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E69" s="2"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B71" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="10" t="s">
         <v>0</v>
       </c>
@@ -4864,58 +4934,58 @@
         <v>2</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>1</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>2</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E74" s="2"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="10" t="s">
         <v>0</v>
       </c>
@@ -4926,69 +4996,126 @@
         <v>2</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>1</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>2</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E79" s="2"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>3</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>4</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>353</v>
+        <v>334</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B83" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E84" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="2">
+        <v>1</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="2">
+        <v>2</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E86" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5002,28 +5129,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CFF3889-4DE1-4EDC-BE51-A4C2BB00F684}">
   <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.58203125" customWidth="1"/>
-    <col min="2" max="2" width="49.58203125" customWidth="1"/>
+    <col min="1" max="1" width="24.625" customWidth="1"/>
+    <col min="2" max="2" width="49.625" customWidth="1"/>
     <col min="3" max="3" width="108" customWidth="1"/>
     <col min="4" max="4" width="17.25" customWidth="1"/>
     <col min="5" max="5" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -5034,83 +5161,83 @@
         <v>2</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>35</v>
+        <v>355</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>129</v>
+        <v>356</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="B8" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>0</v>
       </c>
@@ -5121,55 +5248,55 @@
         <v>2</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>1</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>296</v>
+        <v>363</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>2</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>297</v>
+        <v>364</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>0</v>
       </c>
@@ -5180,73 +5307,73 @@
         <v>2</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>1</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>35</v>
+        <v>355</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>2</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>128</v>
+        <v>366</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>3</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>299</v>
+        <v>368</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>0</v>
       </c>
@@ -5257,90 +5384,90 @@
         <v>2</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>1</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>2</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>3</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>4</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>0</v>
       </c>
@@ -5351,68 +5478,68 @@
         <v>2</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>1</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>2</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>3</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E30" s="2"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B32" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
         <v>0</v>
       </c>
@@ -5423,140 +5550,140 @@
         <v>2</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>1</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>2</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A36" s="15">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
         <v>3</v>
       </c>
-      <c r="B36" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D36" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="E36" s="15"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A37" s="16">
+      <c r="B36" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
         <v>4</v>
       </c>
-      <c r="B37" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>258</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="E37" s="18"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A38" s="7">
+      <c r="B37" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
         <v>5</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>6</v>
+      </c>
+      <c r="B39" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C39" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D38" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="E38" s="7"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A39" s="7">
-        <v>6</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="E39" s="7"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A40" s="9">
+      <c r="D39" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="8">
         <v>7</v>
       </c>
-      <c r="B40" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="C40" s="9" t="s">
+      <c r="B40" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="D40" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="E40" s="7"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C40" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
       <c r="E41" s="7"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C42" s="9"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
         <v>0</v>
       </c>
@@ -5567,62 +5694,62 @@
         <v>2</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="8">
         <v>1</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C44" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="8">
+        <v>2</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C45" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A45" s="8">
-        <v>2</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="D45" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E45" s="2"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="9"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B47" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
         <v>0</v>
       </c>
@@ -5633,93 +5760,93 @@
         <v>2</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>1</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>2</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E50" s="2"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>3</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E51" s="2"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>4</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E52" s="2"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="9"/>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="13" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C54" s="9"/>
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="10" t="s">
         <v>0</v>
       </c>
@@ -5730,103 +5857,103 @@
         <v>2</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="8">
         <v>1</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="8">
         <v>2</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="8">
         <v>3</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E58" s="2"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="8">
         <v>4</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E59" s="2"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A60" s="12">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="8">
         <v>5</v>
       </c>
-      <c r="B60" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="C60" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="D60" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="E60" s="7"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B60" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E60" s="2"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B62" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="10" t="s">
         <v>0</v>
       </c>
@@ -5837,83 +5964,83 @@
         <v>2</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>1</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="2">
+        <v>2</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A65" s="2">
-        <v>2</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C65" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E65" s="2"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>3</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E66" s="2"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>4</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="E67" s="2"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B69" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="10" t="s">
         <v>0</v>
       </c>
@@ -5924,76 +6051,76 @@
         <v>2</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>1</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" s="2">
+        <v>2</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A72" s="2">
-        <v>2</v>
-      </c>
-      <c r="B72" s="2" t="s">
+      <c r="C72" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="D72" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E72" s="2"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>3</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E73" s="2"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G75" s="14"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="10" t="s">
         <v>0</v>
       </c>
@@ -6004,85 +6131,85 @@
         <v>2</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>1</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>2</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>3</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E79" s="2"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A80" s="9">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" s="8">
         <v>4</v>
       </c>
-      <c r="B80" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="C80" s="9" t="s">
+      <c r="B80" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="D80" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="E80" s="7"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C80" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E80" s="2"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B82" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="10" t="s">
         <v>0</v>
       </c>
@@ -6093,68 +6220,68 @@
         <v>2</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>1</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>2</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E85" s="2"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>3</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E86" s="2"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B88" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="10" t="s">
         <v>0</v>
       </c>
@@ -6165,68 +6292,68 @@
         <v>2</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>1</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.45">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>2</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E91" s="2"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>3</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E92" s="2"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B94" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.45">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="10" t="s">
         <v>0</v>
       </c>
@@ -6237,83 +6364,83 @@
         <v>2</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E95" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.45">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>1</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>2</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E97" s="2"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="8">
         <v>3</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E98" s="2"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="8">
         <v>4</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E99" s="2"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="B101" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="10" t="s">
         <v>0</v>
       </c>
@@ -6324,68 +6451,68 @@
         <v>2</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E102" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>1</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.45">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>2</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E104" s="2"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>3</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E105" s="2"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B107" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.45">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="10" t="s">
         <v>0</v>
       </c>
@@ -6396,56 +6523,56 @@
         <v>2</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E108" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.45">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>1</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C109" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" s="2">
+        <v>2</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C110" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D109" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A110" s="2">
-        <v>2</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="D110" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E110" s="2"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>3</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E111" s="2"/>
     </row>

--- a/설계/테이블 구성.xlsx
+++ b/설계/테이블 구성.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nayoonv\game-server\설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDDB65F9-1929-44D9-B9D1-E77C48AF0A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F9E7CF7-79EF-4143-97C5-FA4FB13598AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28665" yWindow="-3285" windowWidth="38670" windowHeight="21270" activeTab="2" xr2:uid="{59F6D182-FAEC-4BF3-A690-25A750217E18}"/>
+    <workbookView xWindow="-135" yWindow="-135" windowWidth="29070" windowHeight="15870" xr2:uid="{59F6D182-FAEC-4BF3-A690-25A750217E18}"/>
   </bookViews>
   <sheets>
     <sheet name="game-data" sheetId="3" r:id="rId1"/>
@@ -2439,8 +2439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBF64E5F-28AE-4868-B332-37029AACFFCF}">
   <dimension ref="A1:E117"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="B95" sqref="B95"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5129,7 +5129,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CFF3889-4DE1-4EDC-BE51-A4C2BB00F684}">
   <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>

--- a/설계/테이블 구성.xlsx
+++ b/설계/테이블 구성.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nayoonv\game-server\설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F9E7CF7-79EF-4143-97C5-FA4FB13598AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CCB77FC-463D-4326-B514-851E2F034B2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-135" yWindow="-135" windowWidth="29070" windowHeight="15870" xr2:uid="{59F6D182-FAEC-4BF3-A690-25A750217E18}"/>
+    <workbookView xWindow="34920" yWindow="-750" windowWidth="24360" windowHeight="15165" xr2:uid="{59F6D182-FAEC-4BF3-A690-25A750217E18}"/>
   </bookViews>
   <sheets>
     <sheet name="game-data" sheetId="3" r:id="rId1"/>
@@ -453,7 +453,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="395">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1912,10 +1912,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>준비물 타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>낚시대나 릴과 같은 준비물에 대한 id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1925,6 +1921,114 @@
   </si>
   <si>
     <t>준비물 타입 id (preparation_id와 preparation_type_id는 복합키이면서 unique키)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goods_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goods_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goods_type_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 id(equip, tool(보트 수리 도구), fuel(보트 연료))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 종류 id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNIQUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNIQUE(goods_id, goods_type_id)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>준비물 종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goods_type_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 종류명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보트 내구도 수리 도구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tool_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수리 도구 id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tool_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수리 도구 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>increased_durability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수리되는 내구도 정도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보트 연료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fuel_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fuel_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>increased_fuel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연료 id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연료 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연료량</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2439,8 +2543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBF64E5F-28AE-4868-B332-37029AACFFCF}">
   <dimension ref="A1:E117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4030,8 +4134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3242E66-B909-433E-B55E-F4A11B1BEF69}">
   <dimension ref="A1:J86"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5127,10 +5231,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CFF3889-4DE1-4EDC-BE51-A4C2BB00F684}">
-  <dimension ref="A1:G111"/>
+  <dimension ref="A1:G129"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView topLeftCell="A100" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B134" sqref="B134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5189,174 +5293,186 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>356</v>
+        <v>371</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>146</v>
+        <v>370</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>111</v>
+        <v>372</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E6" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B8" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
+      <c r="B14" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="10" t="s">
+      <c r="B15" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E15" s="10" t="s">
         <v>133</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>1</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>2</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
-        <v>1</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>125</v>
+        <v>283</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E17" s="2"/>
     </row>
@@ -5367,10 +5483,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B19" t="s">
-        <v>56</v>
+        <v>362</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -5395,10 +5511,10 @@
         <v>1</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>150</v>
+        <v>355</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>76</v>
+        <v>366</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>134</v>
@@ -5412,13 +5528,13 @@
         <v>2</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>37</v>
+        <v>365</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E22" s="2"/>
     </row>
@@ -5427,10 +5543,10 @@
         <v>3</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>153</v>
+        <v>283</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>36</v>
+        <v>367</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>134</v>
@@ -5438,105 +5554,110 @@
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
-        <v>4</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E24" s="2"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="7"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
+      <c r="A25" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B25" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B26" t="s">
-        <v>36</v>
+      <c r="A26" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>133</v>
+      <c r="A27" s="2">
+        <v>1</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>135</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
-        <v>3</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>40</v>
+        <v>4</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>134</v>
       </c>
       <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="7"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>240</v>
+        <v>157</v>
       </c>
       <c r="B32" t="s">
-        <v>241</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -5561,10 +5682,10 @@
         <v>1</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>134</v>
@@ -5578,549 +5699,541 @@
         <v>2</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>240</v>
+        <v>158</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>241</v>
+        <v>38</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>135</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="E35" s="2"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>3</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B38" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>1</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>2</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>3</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E36" s="2"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
+      <c r="D42" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
         <v>4</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B43" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
+      <c r="D43" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
         <v>5</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B44" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C44" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E38" s="2"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
+      <c r="D44" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
         <v>6</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B45" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C45" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E39" s="2"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="8">
+      <c r="D45" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="8">
         <v>7</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B46" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C46" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="D40" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="9"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="7"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
+      <c r="D46" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="9"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="7"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B48" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C42" s="9"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="10" t="s">
+      <c r="C48" s="9"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D43" s="10" t="s">
+      <c r="B49" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="E43" s="10" t="s">
+      <c r="E49" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="8">
-        <v>1</v>
-      </c>
-      <c r="B44" s="8" t="s">
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="8">
+        <v>1</v>
+      </c>
+      <c r="B50" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C50" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E44" s="2" t="s">
+      <c r="D50" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="8">
-        <v>2</v>
-      </c>
-      <c r="B45" s="8" t="s">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="8">
+        <v>2</v>
+      </c>
+      <c r="B51" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C51" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D51" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E45" s="2"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="9"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="9"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B53" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="10" t="s">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B48" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D48" s="10" t="s">
+      <c r="B54" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="E48" s="10" t="s">
+      <c r="E54" s="10" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="2">
-        <v>1</v>
-      </c>
-      <c r="B49" s="2" t="s">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <v>1</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C55" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E49" s="2" t="s">
+      <c r="D55" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="2">
-        <v>2</v>
-      </c>
-      <c r="B50" s="2" t="s">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
+        <v>2</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C56" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D56" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E50" s="2"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="2">
+      <c r="E56" s="2"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
         <v>3</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B57" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C57" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E51" s="2"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="2">
+      <c r="D57" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E57" s="2"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
         <v>4</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B58" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C58" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E52" s="2"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="9"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="13" t="s">
+      <c r="D58" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E58" s="2"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="9"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B60" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="C54" s="9"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="10" t="s">
+      <c r="C60" s="9"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B55" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D55" s="10" t="s">
+      <c r="B61" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="E55" s="10" t="s">
+      <c r="E61" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="F55" s="12" t="s">
+      <c r="F61" s="12" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="8">
-        <v>1</v>
-      </c>
-      <c r="B56" s="8" t="s">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="8">
+        <v>1</v>
+      </c>
+      <c r="B62" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C62" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D56" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E56" s="8" t="s">
+      <c r="D62" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E62" s="8" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="8">
-        <v>2</v>
-      </c>
-      <c r="B57" s="2" t="s">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="8">
+        <v>2</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C63" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="D57" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E57" s="8" t="s">
+      <c r="D63" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E63" s="8" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="8">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="8">
         <v>3</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B64" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C64" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D58" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E58" s="2"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="8">
+      <c r="D64" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E64" s="2"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="8">
         <v>4</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B65" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C65" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D59" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E59" s="2"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="8">
+      <c r="D65" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E65" s="2"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="8">
         <v>5</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="B66" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C66" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="D60" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E60" s="2"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
+      <c r="D66" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E66" s="2"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B68" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="10" t="s">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B63" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D63" s="10" t="s">
+      <c r="B69" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D69" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="E63" s="10" t="s">
+      <c r="E69" s="10" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="2">
-        <v>1</v>
-      </c>
-      <c r="B64" s="2" t="s">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="2">
+        <v>1</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C70" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D64" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E64" s="2" t="s">
+      <c r="D70" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="2">
-        <v>2</v>
-      </c>
-      <c r="B65" s="2" t="s">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="2">
+        <v>2</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C71" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="D71" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E65" s="2"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="2">
+      <c r="E71" s="2"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="2">
         <v>3</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B72" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C72" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D66" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E66" s="2"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="2">
+      <c r="D72" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E72" s="2"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="2">
         <v>4</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B73" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C73" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="D73" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="E67" s="2"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
+      <c r="E73" s="2"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B75" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B70" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D70" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="E70" s="10" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" s="2">
-        <v>1</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="2">
-        <v>2</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E72" s="2"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="2">
-        <v>3</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E73" s="2"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="7"/>
-      <c r="B74" s="7"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="B75" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="G75" s="14"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="10" t="s">
         <v>0</v>
       </c>
@@ -6137,15 +6250,15 @@
         <v>133</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>1</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>134</v>
@@ -6154,87 +6267,95 @@
         <v>135</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>2</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>245</v>
+        <v>52</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>246</v>
+        <v>53</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+      <c r="E78" s="2"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>3</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>47</v>
+        <v>254</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>247</v>
+        <v>62</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>134</v>
       </c>
       <c r="E79" s="2"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" s="8">
-        <v>4</v>
-      </c>
-      <c r="B80" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="C80" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="D80" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E80" s="2"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B82" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="10" t="s">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="7"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="G81" s="14"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B83" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C83" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D83" s="10" t="s">
+      <c r="B82" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D82" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="E83" s="10" t="s">
+      <c r="E82" s="10" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" s="2">
+        <v>1</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>164</v>
+        <v>245</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>81</v>
+        <v>246</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>134</v>
@@ -6243,45 +6364,45 @@
         <v>135</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>54</v>
+        <v>247</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E85" s="2"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="2">
-        <v>3</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D86" s="2" t="s">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" s="8">
+        <v>4</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="D86" s="8" t="s">
         <v>134</v>
       </c>
       <c r="E86" s="2"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B88" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="10" t="s">
         <v>0</v>
       </c>
@@ -6298,15 +6419,15 @@
         <v>133</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>1</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>134</v>
@@ -6315,45 +6436,45 @@
         <v>135</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>2</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>137</v>
       </c>
       <c r="E91" s="2"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>3</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>115</v>
+        <v>169</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>134</v>
       </c>
       <c r="E92" s="2"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B94" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="10" t="s">
         <v>0</v>
       </c>
@@ -6370,15 +6491,15 @@
         <v>133</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>1</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>250</v>
+        <v>82</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>134</v>
@@ -6392,10 +6513,10 @@
         <v>2</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>116</v>
+        <v>60</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>137</v>
@@ -6403,101 +6524,101 @@
       <c r="E97" s="2"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" s="8">
+      <c r="A98" s="2">
         <v>3</v>
       </c>
-      <c r="B98" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C98" s="8" t="s">
-        <v>69</v>
+      <c r="B98" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>134</v>
       </c>
       <c r="E98" s="2"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" s="8">
-        <v>4</v>
-      </c>
-      <c r="B99" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C99" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E99" s="2"/>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B100" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B101" t="s">
-        <v>267</v>
+      <c r="A101" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C101" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D101" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E101" s="10" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B102" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C102" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D102" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="E102" s="10" t="s">
-        <v>133</v>
+      <c r="A102" s="2">
+        <v>1</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>270</v>
+        <v>172</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>271</v>
+        <v>116</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>135</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="E103" s="2"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" s="2">
-        <v>2</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>272</v>
+      <c r="A104" s="8">
+        <v>3</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>69</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E104" s="2"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" s="2">
-        <v>3</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>275</v>
+      <c r="A105" s="8">
+        <v>4</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>68</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>134</v>
@@ -6506,10 +6627,10 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="B107" t="s">
-        <v>106</v>
+        <v>267</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
@@ -6534,10 +6655,10 @@
         <v>1</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>107</v>
+        <v>271</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>134</v>
@@ -6551,10 +6672,10 @@
         <v>2</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>108</v>
+        <v>272</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>137</v>
@@ -6566,15 +6687,231 @@
         <v>3</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E111" s="2"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B113" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B114" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C114" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D114" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E114" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" s="2">
+        <v>1</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" s="2">
+        <v>2</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E116" s="2"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" s="2">
+        <v>3</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="C117" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D111" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E111" s="2"/>
+      <c r="D117" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E117" s="2"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B119" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B120" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C120" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D120" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E120" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121" s="2">
+        <v>1</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122" s="2">
+        <v>2</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E122" s="2"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123" s="2">
+        <v>3</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E123" s="2"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B125" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B126" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C126" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D126" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E126" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127" s="2">
+        <v>1</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128" s="2">
+        <v>2</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E128" s="2"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129" s="2">
+        <v>3</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E129" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/설계/테이블 구성.xlsx
+++ b/설계/테이블 구성.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nayoonv\game-server\설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CCB77FC-463D-4326-B514-851E2F034B2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C370237-52F2-4374-9CE9-E6A21934C750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34920" yWindow="-750" windowWidth="24360" windowHeight="15165" xr2:uid="{59F6D182-FAEC-4BF3-A690-25A750217E18}"/>
+    <workbookView xWindow="-20270" yWindow="9910" windowWidth="33880" windowHeight="18790" xr2:uid="{59F6D182-FAEC-4BF3-A690-25A750217E18}"/>
   </bookViews>
   <sheets>
     <sheet name="game-data" sheetId="3" r:id="rId1"/>
@@ -453,7 +453,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="405">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2029,6 +2029,46 @@
   </si>
   <si>
     <t>연료량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STRING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_account_user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>썰물, 밀물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2541,10 +2581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBF64E5F-28AE-4868-B332-37029AACFFCF}">
-  <dimension ref="A1:E117"/>
+  <dimension ref="A1:E126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C109" sqref="C109"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2633,341 +2673,347 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>181</v>
+        <v>395</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>182</v>
+        <v>396</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>134</v>
       </c>
       <c r="E6" s="2"/>
     </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>5</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>373</v>
+      </c>
+    </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="B8" t="s">
-        <v>184</v>
-      </c>
+      <c r="A8" s="8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B10" t="s">
+        <v>173</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="10" t="s">
+      <c r="B11" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E11" s="10" t="s">
         <v>133</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>1</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>2</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>289</v>
+        <v>174</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <v>4</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
-        <v>5</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>290</v>
+        <v>2</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
-        <v>6</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>290</v>
+      <c r="A15" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="B15" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
+      <c r="A16" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="B17" t="s">
-        <v>350</v>
+      <c r="A17" s="2">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>133</v>
+      <c r="A18" s="2">
+        <v>2</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="8">
-        <v>1</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>135</v>
+      <c r="A19" s="2">
+        <v>3</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>339</v>
+        <v>189</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>345</v>
+        <v>190</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E21" s="2"/>
+      <c r="E21" s="2" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
-        <v>4</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>346</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E22" s="8"/>
+        <v>6</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
-        <v>5</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E23" s="2"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="8">
-        <v>6</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E24" s="2"/>
+      <c r="A24" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="B24" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
-        <v>7</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>290</v>
+      <c r="A25" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="12"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
+      <c r="A26" s="8">
+        <v>1</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="B27" t="s">
-        <v>197</v>
-      </c>
+      <c r="A27" s="2">
+        <v>2</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>133</v>
-      </c>
+      <c r="A28" s="2">
+        <v>3</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
-        <v>1</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>135</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E29" s="8"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
-        <v>2</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>199</v>
+        <v>5</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>347</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>134</v>
@@ -2975,41 +3021,49 @@
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
-        <v>3</v>
+      <c r="A31" s="8">
+        <v>6</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>296</v>
+        <v>193</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>134</v>
+        <v>195</v>
       </c>
       <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
-        <v>4</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E32" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="12"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
-        <v>299</v>
+        <v>196</v>
       </c>
       <c r="B34" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -3051,99 +3105,97 @@
         <v>2</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>3</v>
+        <v>295</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>83</v>
+        <v>199</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>135</v>
-      </c>
+      <c r="E37" s="2"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>3</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>209</v>
+        <v>296</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>195</v>
+        <v>134</v>
       </c>
       <c r="E38" s="2"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="B40" t="s">
-        <v>211</v>
-      </c>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>4</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E39" s="2"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="B41" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D41" s="10" t="s">
+      <c r="B42" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="E41" s="10" t="s">
+      <c r="E42" s="10" t="s">
         <v>133</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="2">
-        <v>1</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E43" s="2"/>
+      <c r="E43" s="2" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
+        <v>2</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>213</v>
-      </c>
       <c r="C44" s="2" t="s">
-        <v>214</v>
+        <v>83</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>134</v>
@@ -3152,60 +3204,58 @@
         <v>135</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="B46" t="s">
-        <v>216</v>
-      </c>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>3</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E45" s="2"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="B47" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D47" s="10" t="s">
+      <c r="B48" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="E47" s="10" t="s">
+      <c r="E48" s="10" t="s">
         <v>133</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="2">
-        <v>1</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>217</v>
+        <v>181</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>238</v>
+        <v>192</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>195</v>
+        <v>134</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>135</v>
@@ -3213,13 +3263,13 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>218</v>
+        <v>187</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>134</v>
@@ -3228,71 +3278,75 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>74</v>
+        <v>213</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E51" s="2"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="2">
-        <v>5</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E52" s="2"/>
+      <c r="E51" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="B53" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="B54" t="s">
-        <v>224</v>
+      <c r="A54" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D55" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="E55" s="10" t="s">
-        <v>133</v>
+      <c r="A55" s="2">
+        <v>1</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>181</v>
+        <v>217</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>192</v>
+        <v>238</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>134</v>
+        <v>195</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>135</v>
@@ -3300,47 +3354,43 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>3</v>
+        <v>218</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>83</v>
+        <v>219</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E57" s="2" t="s">
-        <v>135</v>
-      </c>
+      <c r="E57" s="2"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E58" s="2" t="s">
-        <v>135</v>
-      </c>
+      <c r="E58" s="2"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>148</v>
+        <v>221</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>134</v>
@@ -3348,108 +3398,103 @@
       <c r="E59" s="2"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="2">
-        <v>5</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E60" s="2" t="s">
+      <c r="A60" s="12">
+        <v>6</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="E60" s="7"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="12">
+        <v>7</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>404</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="E61" s="7"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="B63" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="2">
+        <v>1</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="2">
-        <v>6</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E61" s="2"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="2">
-        <v>7</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E62" s="2"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="2">
-        <v>8</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E63" s="2"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="2"/>
-      <c r="B64" s="7"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="B65" t="s">
-        <v>203</v>
-      </c>
-    </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B66" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D66" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="E66" s="10" t="s">
-        <v>133</v>
+      <c r="A66" s="2">
+        <v>2</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>204</v>
+        <v>32</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>134</v>
@@ -3460,13 +3505,13 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>181</v>
+        <v>148</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>192</v>
+        <v>226</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>134</v>
@@ -3475,28 +3520,30 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>142</v>
+        <v>217</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>352</v>
+        <v>227</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E69" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>34</v>
+        <v>113</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>351</v>
+        <v>228</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>134</v>
@@ -3505,501 +3552,506 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>206</v>
+        <v>109</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>195</v>
+        <v>134</v>
       </c>
       <c r="E71" s="2"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="7"/>
-      <c r="B72" s="7"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="7"/>
+      <c r="A72" s="2">
+        <v>8</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E72" s="2"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="B73" s="9" t="s">
-        <v>303</v>
-      </c>
+      <c r="A73" s="2"/>
+      <c r="B73" s="7"/>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="10" t="s">
+      <c r="A74" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="B74" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B74" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D74" s="10" t="s">
+      <c r="B75" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D75" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="E74" s="10" t="s">
+      <c r="E75" s="10" t="s">
         <v>133</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="2">
-        <v>1</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C75" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D75" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E75" s="8" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
-        <v>2</v>
-      </c>
-      <c r="B76" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="C76" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="D76" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="E76" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="2">
+        <v>2</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E77" s="2"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="B78" t="s">
-        <v>259</v>
-      </c>
+      <c r="A78" s="2">
+        <v>3</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E78" s="2"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B79" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C79" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D79" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="E79" s="15" t="s">
-        <v>133</v>
-      </c>
+      <c r="A79" s="2">
+        <v>4</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E79" s="2"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>354</v>
+        <v>206</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E80" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E80" s="2"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="7"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E83" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="2">
+        <v>1</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E84" s="8" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="2">
-        <v>2</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D81" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="E81" s="2"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="2">
-        <v>3</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="D82" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="E82" s="2"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="2">
-        <v>4</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E83" s="2"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="7"/>
-      <c r="B84" s="7"/>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="7"/>
-    </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="B85" s="9" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="15" t="s">
+      <c r="A85" s="2">
+        <v>2</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="E85" s="2"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B87" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B86" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C86" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D86" s="15" t="s">
+      <c r="B88" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C88" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D88" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="E86" s="15" t="s">
+      <c r="E88" s="15" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="8">
-        <v>1</v>
-      </c>
-      <c r="B87" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="8">
-        <v>2</v>
-      </c>
-      <c r="B88" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E88" s="2"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
+        <v>1</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="2">
+        <v>2</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D90" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="E90" s="2"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="2">
         <v>3</v>
       </c>
-      <c r="B89" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E89" s="2"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" s="8">
+      <c r="B91" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D91" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="E91" s="2"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="2">
         <v>4</v>
       </c>
-      <c r="B90" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E90" s="2"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="B92" t="s">
-        <v>264</v>
-      </c>
+      <c r="B92" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E92" s="2"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" s="10" t="s">
+      <c r="A93" s="7"/>
+      <c r="B93" s="7"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B93" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C93" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D93" s="10" t="s">
+      <c r="B95" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C95" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D95" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="E93" s="10" t="s">
+      <c r="E95" s="15" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="2">
-        <v>1</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E94" s="2" t="s">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" s="8">
+        <v>1</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" s="2">
-        <v>2</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E95" s="2"/>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" s="2">
-        <v>3</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E96" s="2"/>
-    </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" s="2">
-        <v>4</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>278</v>
+      <c r="A97" s="8">
+        <v>2</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>279</v>
+        <v>185</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E97" s="2" t="s">
-        <v>280</v>
-      </c>
+      <c r="E97" s="2"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
-        <v>5</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>209</v>
+        <v>3</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>306</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>210</v>
+        <v>307</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>304</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="E98" s="2"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" s="2">
-        <v>6</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>113</v>
+      <c r="A99" s="8">
+        <v>4</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>100</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>228</v>
+        <v>101</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>134</v>
       </c>
       <c r="E99" s="2"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" s="2">
-        <v>7</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E100" s="2"/>
-    </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101" s="8">
-        <v>8</v>
-      </c>
-      <c r="B101" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="C101" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="D101" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="E101" s="8" t="s">
-        <v>290</v>
+      <c r="A101" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B101" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C102" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D102" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E102" s="10" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="B103" t="s">
-        <v>308</v>
+      <c r="A103" s="2">
+        <v>1</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B104" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C104" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D104" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="E104" s="10" t="s">
-        <v>133</v>
-      </c>
+      <c r="A104" s="2">
+        <v>2</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E104" s="2"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>181</v>
+        <v>3</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>192</v>
+        <v>83</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E105" s="2" t="s">
-        <v>135</v>
-      </c>
+      <c r="E105" s="2"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>315</v>
+        <v>278</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>309</v>
+        <v>279</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E106" s="2"/>
+      <c r="E106" s="2" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>316</v>
+        <v>209</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E107" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>317</v>
+        <v>113</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>311</v>
+        <v>228</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>134</v>
@@ -4008,13 +4060,13 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>318</v>
+        <v>109</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>312</v>
+        <v>229</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>134</v>
@@ -4022,86 +4074,88 @@
       <c r="E109" s="2"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A110" s="2">
-        <v>6</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E110" s="2"/>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A111" s="2">
-        <v>7</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E111" s="2"/>
+      <c r="A110" s="8">
+        <v>8</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="D110" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="E110" s="8" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B112" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A113" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B113" t="s">
-        <v>324</v>
+      <c r="A113" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C113" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D113" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E113" s="10" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A114" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B114" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C114" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D114" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="E114" s="10" t="s">
-        <v>133</v>
+      <c r="A114" s="2">
+        <v>1</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>181</v>
+        <v>315</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>192</v>
+        <v>309</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E115" s="2" t="s">
-        <v>135</v>
-      </c>
+      <c r="E115" s="2"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>32</v>
+        <v>316</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>85</v>
+        <v>310</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>134</v>
@@ -4110,18 +4164,135 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
+        <v>4</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E117" s="2"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" s="2">
+        <v>5</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E118" s="2"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" s="2">
+        <v>6</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E119" s="2"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" s="2">
+        <v>7</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E120" s="2"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B122" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B123" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C123" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D123" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E123" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124" s="2">
+        <v>1</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125" s="2">
+        <v>2</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E125" s="2"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126" s="2">
         <v>3</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="B126" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="C117" s="2" t="s">
+      <c r="C126" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="D117" s="2" t="s">
+      <c r="D126" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="E117" s="2"/>
+      <c r="E126" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4134,8 +4305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3242E66-B909-433E-B55E-F4A11B1BEF69}">
   <dimension ref="A1:J86"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5233,7 +5404,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CFF3889-4DE1-4EDC-BE51-A4C2BB00F684}">
   <dimension ref="A1:G129"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A82" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B134" sqref="B134"/>
     </sheetView>
   </sheetViews>

--- a/설계/테이블 구성.xlsx
+++ b/설계/테이블 구성.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nayoonv\game-server\설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C370237-52F2-4374-9CE9-E6A21934C750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CCB77FC-463D-4326-B514-851E2F034B2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20270" yWindow="9910" windowWidth="33880" windowHeight="18790" xr2:uid="{59F6D182-FAEC-4BF3-A690-25A750217E18}"/>
+    <workbookView xWindow="34920" yWindow="-750" windowWidth="24360" windowHeight="15165" xr2:uid="{59F6D182-FAEC-4BF3-A690-25A750217E18}"/>
   </bookViews>
   <sheets>
     <sheet name="game-data" sheetId="3" r:id="rId1"/>
@@ -453,7 +453,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="395">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2029,46 +2029,6 @@
   </si>
   <si>
     <t>연료량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>email</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이메일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STRING</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_account_user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>썰물, 밀물</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2581,10 +2541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBF64E5F-28AE-4868-B332-37029AACFFCF}">
-  <dimension ref="A1:E126"/>
+  <dimension ref="A1:E117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2673,347 +2633,341 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>395</v>
+        <v>181</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>396</v>
+        <v>182</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>134</v>
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
-        <v>5</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>397</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>398</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>399</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>373</v>
-      </c>
-    </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
-        <v>6</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>400</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>401</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>399</v>
-      </c>
-      <c r="E8" s="2"/>
+      <c r="A8" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="B8" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
+      <c r="A9" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
-        <v>402</v>
-      </c>
-      <c r="B10" t="s">
-        <v>173</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
+      <c r="A10" s="2">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>133</v>
+      <c r="A11" s="2">
+        <v>2</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>135</v>
+        <v>121</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <v>2</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E13" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>5</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>6</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="B17" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <v>1</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E19" s="8" t="s">
         <v>135</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="B15" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
-        <v>1</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <v>2</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
-        <v>3</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>290</v>
-      </c>
+      <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>189</v>
+        <v>339</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>190</v>
+        <v>345</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>290</v>
-      </c>
+      <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
+        <v>4</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>5</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
         <v>6</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E22" s="2" t="s">
+      <c r="B24" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>7</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="E25" s="8" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="B24" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="10" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="12"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="B27" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" s="10" t="s">
+      <c r="B28" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="E28" s="10" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="8">
-        <v>1</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
-        <v>2</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
-        <v>3</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
-        <v>4</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>346</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E29" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
-        <v>5</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>347</v>
+        <v>2</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>199</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>134</v>
@@ -3021,49 +2975,41 @@
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="8">
-        <v>6</v>
+      <c r="A31" s="2">
+        <v>3</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>193</v>
+        <v>296</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>195</v>
+        <v>134</v>
       </c>
       <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
-        <v>7</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="12"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
+        <v>4</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E32" s="2"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
-        <v>196</v>
+        <v>299</v>
       </c>
       <c r="B34" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -3105,97 +3051,99 @@
         <v>2</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>295</v>
+        <v>3</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>199</v>
+        <v>83</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E37" s="2"/>
+      <c r="E37" s="2" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>3</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>296</v>
+        <v>209</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>134</v>
+        <v>195</v>
       </c>
       <c r="E38" s="2"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
-        <v>4</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E39" s="2"/>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="B40" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="B41" t="s">
-        <v>208</v>
+      <c r="A41" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>133</v>
+      <c r="A42" s="2">
+        <v>1</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>135</v>
-      </c>
+      <c r="E43" s="2"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>3</v>
+        <v>213</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>83</v>
+        <v>214</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>134</v>
@@ -3204,58 +3152,60 @@
         <v>135</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="2">
-        <v>3</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E45" s="2"/>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="B46" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="B47" t="s">
-        <v>211</v>
+      <c r="A47" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>133</v>
+      <c r="A48" s="2">
+        <v>1</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>181</v>
+        <v>217</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>192</v>
+        <v>238</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>134</v>
+        <v>195</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>135</v>
@@ -3263,13 +3213,13 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>187</v>
+        <v>218</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>134</v>
@@ -3278,75 +3228,71 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>213</v>
+        <v>74</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="B53" t="s">
-        <v>216</v>
-      </c>
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>5</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E52" s="2"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="10" t="s">
+      <c r="A54" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="B54" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B54" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D54" s="10" t="s">
+      <c r="B55" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="E54" s="10" t="s">
+      <c r="E55" s="10" t="s">
         <v>133</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="2">
-        <v>1</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>217</v>
+        <v>181</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>238</v>
+        <v>192</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>195</v>
+        <v>134</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>135</v>
@@ -3354,147 +3300,156 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
+        <v>2</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>218</v>
-      </c>
       <c r="C57" s="2" t="s">
-        <v>219</v>
+        <v>83</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E57" s="2"/>
+      <c r="E57" s="2" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E58" s="2"/>
+      <c r="E58" s="2" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
+        <v>4</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E59" s="2"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
         <v>5</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E59" s="2"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="12">
+      <c r="B60" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
         <v>6</v>
       </c>
-      <c r="B60" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="C60" s="12" t="s">
-        <v>403</v>
-      </c>
-      <c r="D60" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="E60" s="7"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="12">
+      <c r="B61" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E61" s="2"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="2">
         <v>7</v>
       </c>
-      <c r="B61" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="C61" s="12" t="s">
-        <v>404</v>
-      </c>
-      <c r="D61" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="E61" s="7"/>
+      <c r="B62" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E62" s="2"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="B63" t="s">
-        <v>224</v>
-      </c>
+      <c r="A63" s="2">
+        <v>8</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E63" s="2"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="10" t="s">
+      <c r="A64" s="2"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="B65" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B64" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D64" s="10" t="s">
+      <c r="B66" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D66" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="E64" s="10" t="s">
+      <c r="E66" s="10" t="s">
         <v>133</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="2">
-        <v>1</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="2">
-        <v>2</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>32</v>
+        <v>204</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>134</v>
@@ -3505,13 +3460,13 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>226</v>
+        <v>192</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>134</v>
@@ -3520,30 +3475,28 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>217</v>
+        <v>142</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>227</v>
+        <v>352</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>135</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="E69" s="2"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>113</v>
+        <v>34</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>228</v>
+        <v>351</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>134</v>
@@ -3552,506 +3505,501 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>109</v>
+        <v>206</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>134</v>
+        <v>195</v>
       </c>
       <c r="E71" s="2"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="2">
-        <v>8</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E72" s="2"/>
+      <c r="A72" s="7"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="2"/>
-      <c r="B73" s="7"/>
+      <c r="A73" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>303</v>
+      </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="B74" t="s">
-        <v>203</v>
+      <c r="A74" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E74" s="10" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B75" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C75" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D75" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="E75" s="10" t="s">
-        <v>133</v>
+      <c r="A75" s="2">
+        <v>1</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
-        <v>1</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="2">
-        <v>2</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E77" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="E76" s="2"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="2">
-        <v>3</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E78" s="2"/>
+      <c r="A78" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B78" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="2">
-        <v>4</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E79" s="2"/>
+      <c r="A79" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D79" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="E79" s="15" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>206</v>
+        <v>354</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E80" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="7"/>
-      <c r="B81" s="7"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="7"/>
+      <c r="A81" s="2">
+        <v>2</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D81" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="E81" s="2"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="B82" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="C82" s="7"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="7"/>
+      <c r="A82" s="2">
+        <v>3</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D82" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="E82" s="2"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="10" t="s">
+      <c r="A83" s="2">
+        <v>4</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E83" s="2"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="7"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B83" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C83" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D83" s="10" t="s">
+      <c r="B86" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C86" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D86" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="E83" s="10" t="s">
+      <c r="E86" s="15" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="2">
-        <v>1</v>
-      </c>
-      <c r="B84" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C84" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D84" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E84" s="8" t="s">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="8">
+        <v>1</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="2">
-        <v>2</v>
-      </c>
-      <c r="B85" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="C85" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="D85" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="E85" s="2"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="B87" t="s">
-        <v>259</v>
-      </c>
-    </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B88" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C88" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D88" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="E88" s="15" t="s">
-        <v>133</v>
-      </c>
+      <c r="A88" s="8">
+        <v>2</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E88" s="2"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
-        <v>1</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>354</v>
+        <v>3</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>306</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E89" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E89" s="2"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="8">
+        <v>4</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E90" s="2"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B92" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D93" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E93" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="2">
+        <v>1</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" s="2">
-        <v>2</v>
-      </c>
-      <c r="B90" s="2" t="s">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="2">
+        <v>2</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C95" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="D90" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="E90" s="2"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="2">
+      <c r="D95" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E95" s="2"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" s="2">
         <v>3</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="D91" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="E91" s="2"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="2">
+      <c r="B96" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E96" s="2"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" s="2">
         <v>4</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E92" s="2"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" s="7"/>
-      <c r="B93" s="7"/>
-      <c r="C93" s="7"/>
-      <c r="D93" s="7"/>
-      <c r="E93" s="7"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="B94" s="9" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B95" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C95" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D95" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="E95" s="15" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" s="8">
-        <v>1</v>
-      </c>
-      <c r="B96" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" s="8">
-        <v>2</v>
-      </c>
-      <c r="B97" s="8" t="s">
-        <v>98</v>
+      <c r="B97" s="2" t="s">
+        <v>278</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>185</v>
+        <v>279</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E97" s="2"/>
+      <c r="E97" s="2" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
-        <v>3</v>
-      </c>
-      <c r="B98" s="8" t="s">
-        <v>306</v>
+        <v>5</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>209</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>307</v>
+        <v>210</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E98" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" s="8">
-        <v>4</v>
-      </c>
-      <c r="B99" s="8" t="s">
-        <v>100</v>
+      <c r="A99" s="2">
+        <v>6</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>101</v>
+        <v>228</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>134</v>
       </c>
       <c r="E99" s="2"/>
     </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" s="2">
+        <v>7</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E100" s="2"/>
+    </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="B101" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102" s="10" t="s">
+      <c r="A101" s="8">
+        <v>8</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="E101" s="8" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B103" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B102" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C102" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D102" s="10" t="s">
+      <c r="B104" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C104" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D104" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="E102" s="10" t="s">
+      <c r="E104" s="10" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103" s="2">
-        <v>1</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" s="2">
-        <v>2</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E104" s="2"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>3</v>
+        <v>181</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>83</v>
+        <v>192</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E105" s="2"/>
+      <c r="E105" s="2" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>278</v>
+        <v>315</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>279</v>
+        <v>309</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E106" s="2" t="s">
-        <v>280</v>
-      </c>
+      <c r="E106" s="2"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>209</v>
+        <v>316</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>210</v>
+        <v>310</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>304</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="E107" s="2"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>113</v>
+        <v>317</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>228</v>
+        <v>311</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>134</v>
@@ -4060,102 +4008,100 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
+        <v>5</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E109" s="2"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" s="2">
+        <v>6</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E110" s="2"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" s="2">
         <v>7</v>
       </c>
-      <c r="B109" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E109" s="2"/>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A110" s="8">
-        <v>8</v>
-      </c>
-      <c r="B110" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="C110" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="D110" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="E110" s="8" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A112" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="B112" t="s">
-        <v>308</v>
-      </c>
+      <c r="B111" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E111" s="2"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A113" s="10" t="s">
+      <c r="A113" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B113" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B113" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C113" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D113" s="10" t="s">
+      <c r="B114" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C114" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D114" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="E113" s="10" t="s">
+      <c r="E114" s="10" t="s">
         <v>133</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A114" s="2">
-        <v>1</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>315</v>
+        <v>181</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>309</v>
+        <v>192</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E115" s="2"/>
+      <c r="E115" s="2" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>316</v>
+        <v>32</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>310</v>
+        <v>85</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>134</v>
@@ -4164,135 +4110,18 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>134</v>
+        <v>195</v>
       </c>
       <c r="E117" s="2"/>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A118" s="2">
-        <v>5</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E118" s="2"/>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A119" s="2">
-        <v>6</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E119" s="2"/>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A120" s="2">
-        <v>7</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E120" s="2"/>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A122" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B122" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A123" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B123" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C123" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D123" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="E123" s="10" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A124" s="2">
-        <v>1</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A125" s="2">
-        <v>2</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E125" s="2"/>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A126" s="2">
-        <v>3</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E126" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4305,8 +4134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3242E66-B909-433E-B55E-F4A11B1BEF69}">
   <dimension ref="A1:J86"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5404,7 +5233,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CFF3889-4DE1-4EDC-BE51-A4C2BB00F684}">
   <dimension ref="A1:G129"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A100" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B134" sqref="B134"/>
     </sheetView>
   </sheetViews>

--- a/설계/테이블 구성.xlsx
+++ b/설계/테이블 구성.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nayoonv\game-server\설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CCB77FC-463D-4326-B514-851E2F034B2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5789A7D0-86C0-4D6F-9787-1C0C80C7E223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34920" yWindow="-750" windowWidth="24360" windowHeight="15165" xr2:uid="{59F6D182-FAEC-4BF3-A690-25A750217E18}"/>
+    <workbookView xWindow="45600" yWindow="1680" windowWidth="21600" windowHeight="11265" activeTab="2" xr2:uid="{59F6D182-FAEC-4BF3-A690-25A750217E18}"/>
   </bookViews>
   <sheets>
     <sheet name="game-data" sheetId="3" r:id="rId1"/>
@@ -453,7 +453,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="391">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1928,22 +1928,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>goods_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>goods_type_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>상품 id(equip, tool(보트 수리 도구), fuel(보트 연료))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품 종류 id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>UNIQUE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1952,10 +1940,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>상품 종류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>준비물 종류</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1964,14 +1948,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>goods_type_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품 종류명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tool</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2029,6 +2005,14 @@
   </si>
   <si>
     <t>연료량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 종류 id (preparation_type_id)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 id(equip_id, equip, tool(보트 수리 도구), fuel(보트 연료))</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2543,7 +2527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBF64E5F-28AE-4868-B332-37029AACFFCF}">
   <dimension ref="A1:E117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+    <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
@@ -4135,7 +4119,7 @@
   <dimension ref="A1:J86"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5231,10 +5215,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CFF3889-4DE1-4EDC-BE51-A4C2BB00F684}">
-  <dimension ref="A1:G129"/>
+  <dimension ref="A1:G124"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B134" sqref="B134"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5296,13 +5280,13 @@
         <v>368</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>371</v>
+        <v>390</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>134</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -5310,16 +5294,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>372</v>
+        <v>389</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>134</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -5361,14 +5345,11 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>375</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="B9" t="s">
+        <v>372</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
@@ -5388,43 +5369,48 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
+      <c r="A11" s="2">
         <v>1</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>372</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E11" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
+      <c r="A12" s="2">
         <v>2</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>379</v>
-      </c>
-      <c r="D12" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E12" s="8"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B14" t="s">
-        <v>376</v>
+        <v>362</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -5449,10 +5435,10 @@
         <v>1</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>283</v>
+        <v>355</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>134</v>
@@ -5466,395 +5452,398 @@
         <v>2</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>284</v>
+        <v>125</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
+      <c r="A18" s="2">
+        <v>3</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>377</v>
-      </c>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="10" t="s">
+      <c r="B21" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E21" s="10" t="s">
         <v>133</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <v>1</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>365</v>
+        <v>76</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E22" s="2"/>
+      <c r="E22" s="2" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
+        <v>2</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
         <v>3</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
+      <c r="B24" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B25" t="s">
-        <v>56</v>
-      </c>
+      <c r="A25" s="2">
+        <v>4</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="7"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" s="10" t="s">
+      <c r="B28" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="E28" s="10" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
-        <v>1</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
-        <v>2</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>153</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E29" s="2"/>
+      <c r="E29" s="2" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
-        <v>4</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>65</v>
+        <v>2</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="7"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B32" t="s">
-        <v>36</v>
-      </c>
+      <c r="A31" s="2">
+        <v>3</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E31" s="2"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B33" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D33" s="10" t="s">
+      <c r="B34" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="E33" s="10" t="s">
+      <c r="E34" s="10" t="s">
         <v>133</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
-        <v>1</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E35" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
+        <v>2</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
         <v>3</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E36" s="2"/>
+      <c r="B37" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E37" s="2"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B38" t="s">
-        <v>241</v>
-      </c>
+      <c r="A38" s="2">
+        <v>4</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E38" s="2"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>133</v>
-      </c>
+      <c r="A39" s="2">
+        <v>5</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E39" s="2"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
-        <v>1</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>76</v>
+        <v>6</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>68</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="8">
+        <v>7</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="7"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43" s="9"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="8">
+        <v>1</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="2">
-        <v>2</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="2">
-        <v>3</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E42" s="2"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="2">
-        <v>4</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E43" s="2"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="2">
-        <v>5</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E44" s="2"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="2">
-        <v>6</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E45" s="2"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="8">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>277</v>
+        <v>156</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>134</v>
+        <v>66</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="E46" s="2"/>
     </row>
@@ -5862,17 +5851,16 @@
       <c r="A47" s="9"/>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
+      <c r="D47" s="7"/>
       <c r="E47" s="7"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C48" s="9"/>
+        <v>160</v>
+      </c>
+      <c r="B48" t="s">
+        <v>57</v>
+      </c>
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
     </row>
@@ -5896,14 +5884,14 @@
       <c r="G49" s="7"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="8">
-        <v>1</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>65</v>
+      <c r="A50" s="2">
+        <v>1</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>249</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>134</v>
@@ -5913,14 +5901,14 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="8">
-        <v>2</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>66</v>
+      <c r="A51" s="2">
+        <v>2</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>137</v>
@@ -5928,276 +5916,267 @@
       <c r="E51" s="2"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="9"/>
-      <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
+      <c r="A52" s="2">
+        <v>3</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E52" s="2"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B53" t="s">
-        <v>57</v>
-      </c>
+      <c r="A53" s="2">
+        <v>4</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E53" s="2"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="10" t="s">
+      <c r="A54" s="9"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="C55" s="9"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B54" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D54" s="10" t="s">
+      <c r="B56" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="E54" s="10" t="s">
+      <c r="E56" s="10" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="2">
-        <v>1</v>
-      </c>
-      <c r="B55" s="2" t="s">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="8">
+        <v>1</v>
+      </c>
+      <c r="B57" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E55" s="2" t="s">
+      <c r="C57" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E57" s="8" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="2">
-        <v>2</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E56" s="2"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="8">
+        <v>2</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="8">
         <v>3</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E57" s="2"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="2">
+      <c r="B59" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E59" s="2"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="8">
         <v>4</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E58" s="2"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="9"/>
-      <c r="B59" s="9"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="C60" s="9"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
+      <c r="B60" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E60" s="2"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B61" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C61" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D61" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="E61" s="10" t="s">
-        <v>133</v>
-      </c>
+      <c r="A61" s="8">
+        <v>5</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E61" s="2"/>
       <c r="F61" s="12" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="8">
-        <v>1</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D62" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E62" s="8" t="s">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B63" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="2">
+        <v>1</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="8">
-        <v>2</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E63" s="8" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="8">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="2">
+        <v>2</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E66" s="2"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="2">
         <v>3</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D64" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E64" s="2"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="8">
+      <c r="B67" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E67" s="2"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="2">
         <v>4</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D65" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E65" s="2"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="8">
-        <v>5</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="D66" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E66" s="2"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B68" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="10" t="s">
+      <c r="B68" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E68" s="2"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B70" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B69" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C69" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D69" s="10" t="s">
+      <c r="B71" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D71" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="E69" s="10" t="s">
+      <c r="E71" s="10" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="2">
-        <v>1</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="2">
-        <v>2</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E71" s="2"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>51</v>
@@ -6208,710 +6187,655 @@
       <c r="D72" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E72" s="2"/>
+      <c r="E72" s="2" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>114</v>
+        <v>53</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>302</v>
+        <v>137</v>
       </c>
       <c r="E73" s="2"/>
     </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="2">
+        <v>3</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E74" s="2"/>
+    </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B75" t="s">
-        <v>50</v>
-      </c>
+      <c r="A75" s="7"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="10" t="s">
+      <c r="A76" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B76" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C76" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D76" s="10" t="s">
+      <c r="B77" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D77" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="E76" s="10" t="s">
+      <c r="E77" s="10" t="s">
         <v>133</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="2">
-        <v>1</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E78" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
+        <v>2</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="2">
         <v>3</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E79" s="2"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="7"/>
-      <c r="B80" s="7"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="7"/>
+      <c r="B80" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E80" s="2"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="B81" s="9" t="s">
-        <v>246</v>
-      </c>
+      <c r="A81" s="8">
+        <v>4</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E81" s="2"/>
       <c r="G81" s="14"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="10" t="s">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B83" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B82" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C82" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D82" s="10" t="s">
+      <c r="B84" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D84" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="E82" s="10" t="s">
+      <c r="E84" s="10" t="s">
         <v>133</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" s="2">
-        <v>1</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84" s="2">
-        <v>2</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
+        <v>1</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" s="2">
+        <v>2</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E86" s="2"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87" s="2">
         <v>3</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E85" s="2"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A86" s="8">
-        <v>4</v>
-      </c>
-      <c r="B86" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="C86" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="D86" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E86" s="2"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A88" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B88" t="s">
-        <v>59</v>
-      </c>
+      <c r="B87" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E87" s="2"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A89" s="10" t="s">
+      <c r="A89" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B89" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B89" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C89" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D89" s="10" t="s">
+      <c r="B90" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D90" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="E89" s="10" t="s">
+      <c r="E90" s="10" t="s">
         <v>133</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A90" s="2">
-        <v>1</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E91" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
+        <v>2</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E92" s="2"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93" s="2">
         <v>3</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E92" s="2"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A94" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B94" t="s">
-        <v>55</v>
-      </c>
+      <c r="B93" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E93" s="2"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A95" s="10" t="s">
+      <c r="A95" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B95" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B95" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C95" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D95" s="10" t="s">
+      <c r="B96" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D96" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="E95" s="10" t="s">
+      <c r="E96" s="10" t="s">
         <v>133</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A96" s="2">
-        <v>1</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E97" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
+        <v>2</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E98" s="2"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" s="8">
         <v>3</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E98" s="2"/>
+      <c r="B99" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E99" s="2"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B100" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101" s="10" t="s">
+      <c r="A100" s="8">
+        <v>4</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E100" s="2"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B102" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B101" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C101" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D101" s="10" t="s">
+      <c r="B103" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C103" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D103" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="E101" s="10" t="s">
+      <c r="E103" s="10" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102" s="2">
-        <v>1</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E102" s="2" t="s">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" s="2">
+        <v>1</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103" s="2">
-        <v>2</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D103" s="2" t="s">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" s="2">
+        <v>2</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D105" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E103" s="2"/>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" s="8">
+      <c r="E105" s="2"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" s="2">
         <v>3</v>
       </c>
-      <c r="B104" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C104" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E104" s="2"/>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" s="8">
-        <v>4</v>
-      </c>
-      <c r="B105" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C105" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E105" s="2"/>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B107" t="s">
-        <v>267</v>
-      </c>
+      <c r="B106" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E106" s="2"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108" s="10" t="s">
+      <c r="A108" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B108" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B108" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C108" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D108" s="10" t="s">
+      <c r="B109" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D109" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="E108" s="10" t="s">
+      <c r="E109" s="10" t="s">
         <v>133</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109" s="2">
-        <v>1</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>272</v>
+        <v>107</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E110" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
+        <v>2</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E111" s="2"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" s="2">
         <v>3</v>
       </c>
-      <c r="B111" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E111" s="2"/>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A113" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B113" t="s">
-        <v>106</v>
-      </c>
+      <c r="B112" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E112" s="2"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A114" s="10" t="s">
+      <c r="A114" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B114" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B114" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C114" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D114" s="10" t="s">
+      <c r="B115" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C115" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D115" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="E114" s="10" t="s">
+      <c r="E115" s="10" t="s">
         <v>133</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A115" s="2">
-        <v>1</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>257</v>
+        <v>376</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>108</v>
+        <v>377</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E116" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
+        <v>2</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E117" s="2"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" s="2">
         <v>3</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E117" s="2"/>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A119" s="1" t="s">
+      <c r="B118" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="B119" t="s">
+      <c r="C118" s="2" t="s">
         <v>381</v>
       </c>
+      <c r="D118" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E118" s="2"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A120" s="10" t="s">
+      <c r="A120" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B120" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B120" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C120" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D120" s="10" t="s">
+      <c r="B121" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D121" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="E120" s="10" t="s">
+      <c r="E121" s="10" t="s">
         <v>133</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A121" s="2">
-        <v>1</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E122" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>387</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E123" s="2"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A125" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B125" t="s">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124" s="2">
+        <v>3</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C124" s="2" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A126" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B126" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C126" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D126" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="E126" s="10" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A127" s="2">
-        <v>1</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A128" s="2">
-        <v>2</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E128" s="2"/>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A129" s="2">
-        <v>3</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E129" s="2"/>
+      <c r="D124" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E124" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
